--- a/benchmarks/trajectories.xlsx
+++ b/benchmarks/trajectories.xlsx
@@ -137,10 +137,10 @@
     <t>child</t>
   </si>
   <si>
-    <t>bread-portion</t>
-  </si>
-  <si>
-    <t>content-portion</t>
+    <t>bread_portion</t>
+  </si>
+  <si>
+    <t>content_portion</t>
   </si>
   <si>
     <t>tray</t>
@@ -233,10 +233,10 @@
     <t>passenger</t>
   </si>
   <si>
-    <t>fast-elevator</t>
-  </si>
-  <si>
-    <t>slow-elevator</t>
+    <t>fast_elevator</t>
+  </si>
+  <si>
+    <t>slow_elevator</t>
   </si>
   <si>
     <t>0_elevators_traj</t>
@@ -785,7 +785,7 @@
     <t>vehicle</t>
   </si>
   <si>
-    <t>capacity-number</t>
+    <t>capacity_number</t>
   </si>
   <si>
     <t>0_transport_traj</t>
@@ -1243,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1307,13 +1307,13 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1342,13 +1342,13 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -1377,13 +1377,13 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1412,13 +1412,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1447,13 +1447,13 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -1488,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -1517,13 +1517,13 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -1552,10 +1552,10 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>35</v>
@@ -1628,19 +1628,19 @@
         <v>127</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1654,13 +1654,13 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1668,19 +1668,19 @@
         <v>129</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1688,19 +1688,19 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1708,19 +1708,19 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1728,19 +1728,19 @@
         <v>132</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1748,19 +1748,19 @@
         <v>133</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1768,19 +1768,19 @@
         <v>134</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1788,19 +1788,19 @@
         <v>135</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1808,19 +1808,19 @@
         <v>136</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +1909,10 @@
         <v>140</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1929,10 +1929,10 @@
         <v>141</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1949,10 +1949,10 @@
         <v>142</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -2009,10 +2009,10 @@
         <v>145</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -2029,10 +2029,10 @@
         <v>146</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -2049,10 +2049,10 @@
         <v>147</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -2196,13 +2196,13 @@
         <v>153</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2222,13 +2222,13 @@
         <v>154</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2248,13 +2248,13 @@
         <v>155</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2266,7 +2266,7 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2274,13 +2274,13 @@
         <v>156</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2292,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2300,10 +2300,10 @@
         <v>157</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -2344,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2352,13 +2352,13 @@
         <v>159</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -2370,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2419,10 +2419,10 @@
         <v>161</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -2439,10 +2439,10 @@
         <v>162</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -2459,10 +2459,10 @@
         <v>163</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -2479,10 +2479,10 @@
         <v>164</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -2499,10 +2499,10 @@
         <v>165</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>31</v>
@@ -2519,10 +2519,10 @@
         <v>166</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>31</v>
@@ -2539,10 +2539,10 @@
         <v>167</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>49</v>
@@ -2559,10 +2559,10 @@
         <v>168</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>49</v>
@@ -2579,10 +2579,10 @@
         <v>169</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>71</v>
@@ -2700,10 +2700,10 @@
         <v>174</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2740,10 +2740,10 @@
         <v>176</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -2760,10 +2760,10 @@
         <v>177</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -2955,10 +2955,10 @@
         <v>190</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -2990,10 +2990,10 @@
         <v>191</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -3025,13 +3025,13 @@
         <v>192</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -3060,13 +3060,13 @@
         <v>193</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3084,7 +3084,7 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -3095,13 +3095,13 @@
         <v>194</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -3130,13 +3130,13 @@
         <v>195</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3154,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -3165,13 +3165,13 @@
         <v>196</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3189,7 +3189,7 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -3200,10 +3200,10 @@
         <v>197</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>36</v>
@@ -3235,10 +3235,10 @@
         <v>198</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>39</v>
@@ -3319,10 +3319,10 @@
         <v>202</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -3345,10 +3345,10 @@
         <v>203</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -3371,19 +3371,19 @@
         <v>204</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3397,19 +3397,19 @@
         <v>205</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -3423,19 +3423,19 @@
         <v>206</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3449,19 +3449,19 @@
         <v>207</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3475,19 +3475,19 @@
         <v>208</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3501,19 +3501,19 @@
         <v>209</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3527,19 +3527,19 @@
         <v>210</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -3553,19 +3553,19 @@
         <v>211</v>
       </c>
       <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
       <c r="D11">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -3668,10 +3668,10 @@
         <v>216</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>41</v>
@@ -3691,10 +3691,10 @@
         <v>217</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>41</v>
@@ -3714,10 +3714,10 @@
         <v>218</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>55</v>
@@ -3737,10 +3737,10 @@
         <v>219</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>55</v>
@@ -3760,10 +3760,10 @@
         <v>220</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>71</v>
@@ -3783,10 +3783,10 @@
         <v>221</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>71</v>
@@ -3806,10 +3806,10 @@
         <v>222</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>107</v>
@@ -3829,10 +3829,10 @@
         <v>223</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>107</v>
@@ -3953,10 +3953,10 @@
         <v>229</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -3979,10 +3979,10 @@
         <v>230</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -4005,10 +4005,10 @@
         <v>231</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -4031,10 +4031,10 @@
         <v>232</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -4057,10 +4057,10 @@
         <v>233</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>26</v>
@@ -4083,10 +4083,10 @@
         <v>234</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>29</v>
@@ -4241,10 +4241,10 @@
         <v>240</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -4270,10 +4270,10 @@
         <v>241</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -4299,10 +4299,10 @@
         <v>242</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -4328,10 +4328,10 @@
         <v>243</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -4357,10 +4357,10 @@
         <v>244</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -4386,10 +4386,10 @@
         <v>245</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -4415,10 +4415,10 @@
         <v>246</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -4444,10 +4444,10 @@
         <v>247</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>24</v>
@@ -4573,10 +4573,10 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -4624,10 +4624,10 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -4641,10 +4641,10 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -4658,10 +4658,10 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -4675,10 +4675,10 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -4692,10 +4692,10 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -4789,16 +4789,16 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -4809,22 +4809,22 @@
         <v>253</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -4835,22 +4835,22 @@
         <v>254</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -4861,10 +4861,10 @@
         <v>255</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>27</v>
@@ -4887,22 +4887,22 @@
         <v>256</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -4913,22 +4913,22 @@
         <v>257</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -4939,22 +4939,22 @@
         <v>258</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -4965,10 +4965,10 @@
         <v>259</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>44</v>
@@ -4991,10 +4991,10 @@
         <v>260</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>53</v>
@@ -5137,10 +5137,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -5169,10 +5169,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -5201,10 +5201,10 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>29</v>
@@ -5233,10 +5233,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>28</v>
@@ -5265,10 +5265,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>33</v>
@@ -5297,10 +5297,10 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>32</v>
@@ -5329,10 +5329,10 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>39</v>
@@ -5361,10 +5361,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>38</v>
@@ -5513,10 +5513,10 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -5545,10 +5545,10 @@
         <v>57</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -5577,10 +5577,10 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>27</v>
@@ -5609,10 +5609,10 @@
         <v>59</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -5641,10 +5641,10 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -5673,10 +5673,10 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -5705,10 +5705,10 @@
         <v>62</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>38</v>
@@ -5737,10 +5737,10 @@
         <v>63</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>43</v>
@@ -5817,25 +5817,25 @@
         <v>68</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5849,10 +5849,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5869,19 +5869,19 @@
         <v>70</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5895,10 +5895,10 @@
         <v>71</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -5921,19 +5921,19 @@
         <v>72</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5947,10 +5947,10 @@
         <v>73</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -5973,19 +5973,19 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -5999,10 +5999,10 @@
         <v>75</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -6025,19 +6025,19 @@
         <v>76</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6051,10 +6051,10 @@
         <v>77</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -6178,10 +6178,10 @@
         <v>83</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -6198,10 +6198,10 @@
         <v>84</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -6218,10 +6218,10 @@
         <v>85</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>14</v>
@@ -6238,10 +6238,10 @@
         <v>86</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -6258,10 +6258,10 @@
         <v>87</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>18</v>
@@ -6278,10 +6278,10 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>24</v>
@@ -6298,10 +6298,10 @@
         <v>89</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -6431,10 +6431,10 @@
         <v>96</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>46</v>
@@ -6500,10 +6500,10 @@
         <v>99</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>61</v>
@@ -6523,10 +6523,10 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>69</v>
@@ -6546,10 +6546,10 @@
         <v>101</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>68</v>
@@ -6569,10 +6569,10 @@
         <v>102</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>78</v>
@@ -6663,10 +6663,10 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -6680,10 +6680,10 @@
         <v>107</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -6697,10 +6697,10 @@
         <v>108</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -6714,10 +6714,10 @@
         <v>109</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -6731,10 +6731,10 @@
         <v>110</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>25</v>
@@ -6748,10 +6748,10 @@
         <v>111</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -6765,10 +6765,10 @@
         <v>112</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -6782,10 +6782,10 @@
         <v>113</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -6873,10 +6873,10 @@
         <v>118</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -6899,10 +6899,10 @@
         <v>119</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -6925,10 +6925,10 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -6951,10 +6951,10 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -6977,10 +6977,10 @@
         <v>122</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -7003,10 +7003,10 @@
         <v>123</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>22</v>
@@ -7055,10 +7055,10 @@
         <v>125</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -7081,10 +7081,10 @@
         <v>126</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>30</v>
